--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.532965</v>
+        <v>0.2490446666666667</v>
       </c>
       <c r="H2">
-        <v>4.598895</v>
+        <v>0.747134</v>
       </c>
       <c r="I2">
-        <v>0.01351795338509964</v>
+        <v>0.00222126824250593</v>
       </c>
       <c r="J2">
-        <v>0.01351795338509964</v>
+        <v>0.00222126824250593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N2">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q2">
-        <v>36.17218041427667</v>
+        <v>7.022932255160445</v>
       </c>
       <c r="R2">
-        <v>325.54962372849</v>
+        <v>63.206390296444</v>
       </c>
       <c r="S2">
-        <v>0.009458144724842793</v>
+        <v>0.001634282098611635</v>
       </c>
       <c r="T2">
-        <v>0.009458144724842793</v>
+        <v>0.001634282098611635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.532965</v>
+        <v>0.2490446666666667</v>
       </c>
       <c r="H3">
-        <v>4.598895</v>
+        <v>0.747134</v>
       </c>
       <c r="I3">
-        <v>0.01351795338509964</v>
+        <v>0.00222126824250593</v>
       </c>
       <c r="J3">
-        <v>0.01351795338509964</v>
+        <v>0.00222126824250593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q3">
-        <v>11.92344111610167</v>
+        <v>1.937075809479778</v>
       </c>
       <c r="R3">
-        <v>107.310970044915</v>
+        <v>17.433682285318</v>
       </c>
       <c r="S3">
-        <v>0.003117689627847827</v>
+        <v>0.0004507701632406134</v>
       </c>
       <c r="T3">
-        <v>0.003117689627847827</v>
+        <v>0.0004507701632406134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.532965</v>
+        <v>0.2490446666666667</v>
       </c>
       <c r="H4">
-        <v>4.598895</v>
+        <v>0.747134</v>
       </c>
       <c r="I4">
-        <v>0.01351795338509964</v>
+        <v>0.00222126824250593</v>
       </c>
       <c r="J4">
-        <v>0.01351795338509964</v>
+        <v>0.00222126824250593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P4">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q4">
-        <v>3.603085023906666</v>
+        <v>0.5853552486524446</v>
       </c>
       <c r="R4">
-        <v>32.42776521515999</v>
+        <v>5.268197237872</v>
       </c>
       <c r="S4">
-        <v>0.0009421190324090218</v>
+        <v>0.0001362159806536817</v>
       </c>
       <c r="T4">
-        <v>0.000942119032409022</v>
+        <v>0.0001362159806536817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>315.430579</v>
       </c>
       <c r="I5">
-        <v>0.9271739979184109</v>
+        <v>0.9377915177839022</v>
       </c>
       <c r="J5">
-        <v>0.9271739979184109</v>
+        <v>0.9377915177839021</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N5">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q5">
-        <v>2480.989849032811</v>
+        <v>2964.993679210202</v>
       </c>
       <c r="R5">
-        <v>22328.9086412953</v>
+        <v>26684.94311289181</v>
       </c>
       <c r="S5">
-        <v>0.6487184566777364</v>
+        <v>0.6899733496459848</v>
       </c>
       <c r="T5">
-        <v>0.6487184566777364</v>
+        <v>0.6899733496459846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>315.430579</v>
       </c>
       <c r="I6">
-        <v>0.9271739979184109</v>
+        <v>0.9377915177839022</v>
       </c>
       <c r="J6">
-        <v>0.9271739979184109</v>
+        <v>0.9377915177839021</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q6">
         <v>817.8090465045093</v>
@@ -818,10 +818,10 @@
         <v>7360.281418540584</v>
       </c>
       <c r="S6">
-        <v>0.213837159677343</v>
+        <v>0.1903094941294483</v>
       </c>
       <c r="T6">
-        <v>0.213837159677343</v>
+        <v>0.1903094941294483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>315.430579</v>
       </c>
       <c r="I7">
-        <v>0.9271739979184109</v>
+        <v>0.9377915177839022</v>
       </c>
       <c r="J7">
-        <v>0.9271739979184109</v>
+        <v>0.9377915177839021</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P7">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q7">
-        <v>247.1296246766035</v>
+        <v>247.1296246766036</v>
       </c>
       <c r="R7">
-        <v>2224.166622089432</v>
+        <v>2224.166622089433</v>
       </c>
       <c r="S7">
-        <v>0.06461838156333152</v>
+        <v>0.05750867400846921</v>
       </c>
       <c r="T7">
-        <v>0.06461838156333154</v>
+        <v>0.05750867400846919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.725660333333333</v>
+        <v>6.725660333333334</v>
       </c>
       <c r="H8">
         <v>20.176981</v>
       </c>
       <c r="I8">
-        <v>0.0593080486964893</v>
+        <v>0.05998721397359182</v>
       </c>
       <c r="J8">
-        <v>0.0593080486964893</v>
+        <v>0.05998721397359182</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N8">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q8">
-        <v>158.7001653543802</v>
+        <v>189.6601823456829</v>
       </c>
       <c r="R8">
-        <v>1428.301488189422</v>
+        <v>1706.941641111146</v>
       </c>
       <c r="S8">
-        <v>0.04149623037890695</v>
+        <v>0.04413516029564588</v>
       </c>
       <c r="T8">
-        <v>0.04149623037890695</v>
+        <v>0.04413516029564588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.725660333333333</v>
+        <v>6.725660333333334</v>
       </c>
       <c r="H9">
         <v>20.176981</v>
       </c>
       <c r="I9">
-        <v>0.0593080486964893</v>
+        <v>0.05998721397359182</v>
       </c>
       <c r="J9">
-        <v>0.0593080486964893</v>
+        <v>0.05998721397359182</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>23.334077</v>
       </c>
       <c r="O9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q9">
-        <v>52.31235869794855</v>
+        <v>52.31235869794856</v>
       </c>
       <c r="R9">
-        <v>470.811228281537</v>
+        <v>470.8112282815371</v>
       </c>
       <c r="S9">
-        <v>0.01367840848399075</v>
+        <v>0.01217342674683893</v>
       </c>
       <c r="T9">
-        <v>0.01367840848399075</v>
+        <v>0.01217342674683893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.725660333333333</v>
+        <v>6.725660333333334</v>
       </c>
       <c r="H10">
         <v>20.176981</v>
       </c>
       <c r="I10">
-        <v>0.0593080486964893</v>
+        <v>0.05998721397359182</v>
       </c>
       <c r="J10">
-        <v>0.0593080486964893</v>
+        <v>0.05998721397359182</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N10">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O10">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P10">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q10">
-        <v>15.80800998256088</v>
+        <v>15.80800998256089</v>
       </c>
       <c r="R10">
         <v>142.272089843048</v>
       </c>
       <c r="S10">
-        <v>0.004133409833591594</v>
+        <v>0.003678626931107009</v>
       </c>
       <c r="T10">
-        <v>0.004133409833591595</v>
+        <v>0.003678626931107008</v>
       </c>
     </row>
   </sheetData>
